--- a/Git.xlsx
+++ b/Git.xlsx
@@ -21,7 +21,21 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0">
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Эта команда срабатывает только в случае, если вы клонировали с сервера, на котором у вас есть права на запись, и если никто другой с тех пор не выполнял команду push.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,20 +76,6 @@
           </rPr>
           <t>--since, --after Показывает только те коммиты, которые были сделаны после указанной даты.
 --until, --before Показывает только те коммиты, которые были сделаны до указанной даты.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Эта команда срабатывает только в случае, если вы клонировали с сервера, на котором у вас есть права на запись, и если никто другой с тех пор не выполнял команду push.</t>
         </r>
       </text>
     </comment>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,186 +1262,186 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2">
